--- a/vertaalingenExcelAlles.xlsx
+++ b/vertaalingenExcelAlles.xlsx
@@ -2905,9 +2905,6 @@
     <t xml:space="preserve"> FLC-目标     手动  上</t>
   </si>
   <si>
-    <t xml:space="preserve"> FLC-目标     手动 下</t>
-  </si>
-  <si>
     <t>手动照明      开/关</t>
   </si>
   <si>
@@ -3043,25 +3040,28 @@
     <t>spaans?</t>
   </si>
   <si>
-    <t>MOVE/!CONFIRM</t>
-  </si>
-  <si>
     <t>MANUAL!UP</t>
   </si>
   <si>
     <t>MANUAL!DOWN</t>
   </si>
   <si>
-    <t>FLR 手   动   向   前</t>
-  </si>
-  <si>
-    <t>FLR 手   动   向   后</t>
-  </si>
-  <si>
-    <t>ADAS CR 手   动   向   上</t>
-  </si>
-  <si>
-    <t>ADAS CR 手   动   向   下</t>
+    <t>FLC-目标     手动 下</t>
+  </si>
+  <si>
+    <t>FLR!手   动   向   前</t>
+  </si>
+  <si>
+    <t>FLR!手   动   向   后</t>
+  </si>
+  <si>
+    <t>ADAS CR!手   动   向   上</t>
+  </si>
+  <si>
+    <t>ADAS CR!手   动   向   下</t>
+  </si>
+  <si>
+    <t>MOVE   /!CONFIRM</t>
   </si>
 </sst>
 </file>
@@ -3984,12 +3984,12 @@
   <sheetData>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -14366,7 +14366,7 @@
         <v>349</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14466,7 +14466,7 @@
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -14475,7 +14475,7 @@
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14484,7 +14484,7 @@
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -14493,7 +14493,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -24575,7 +24575,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" activeCellId="6" sqref="D4 D6 D8 D13 D15 D18 D20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24605,7 +24605,7 @@
         <v>349</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -24636,7 +24636,7 @@
         <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
         <v>158</v>
@@ -24650,7 +24650,7 @@
         <v>280</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E4" t="s">
         <v>158</v>
@@ -24678,7 +24678,7 @@
         <v>333</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -24767,7 +24767,7 @@
         <v>327</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
         <v>345</v>
@@ -24801,7 +24801,7 @@
         <v>328</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E15" t="s">
         <v>344</v>
@@ -24886,7 +24886,7 @@
         <v>333</v>
       </c>
       <c r="F23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -24894,7 +24894,7 @@
         <v>333</v>
       </c>
       <c r="F24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -24902,7 +24902,7 @@
         <v>333</v>
       </c>
       <c r="F25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -24910,7 +24910,7 @@
         <v>333</v>
       </c>
       <c r="F26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -24918,7 +24918,7 @@
         <v>333</v>
       </c>
       <c r="F27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -24926,7 +24926,7 @@
         <v>333</v>
       </c>
       <c r="F28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -24934,7 +24934,7 @@
         <v>333</v>
       </c>
       <c r="F29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -24950,7 +24950,7 @@
         <v>333</v>
       </c>
       <c r="F31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -24958,7 +24958,7 @@
         <v>333</v>
       </c>
       <c r="F32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -24966,7 +24966,7 @@
         <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -24974,12 +24974,12 @@
         <v>333</v>
       </c>
       <c r="F34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="F35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -25234,7 +25234,7 @@
         <v>333</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -25276,7 +25276,7 @@
         <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H18" t="s">
         <v>225</v>
@@ -25301,7 +25301,7 @@
         <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H20" t="s">
         <v>192</v>
@@ -25346,7 +25346,7 @@
         <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -25382,7 +25382,7 @@
         <v>333</v>
       </c>
       <c r="D26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F26" t="s">
         <v>239</v>
@@ -25681,8 +25681,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25898,13 +25898,13 @@
         <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F12" t="s">
         <v>373</v>
       </c>
       <c r="G12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H12" t="s">
         <v>449</v>
@@ -25915,13 +25915,13 @@
         <v>333</v>
       </c>
       <c r="D13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F13" t="s">
         <v>374</v>
       </c>
       <c r="G13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>189</v>
@@ -25972,7 +25972,7 @@
         <v>377</v>
       </c>
       <c r="G16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>451</v>
@@ -26116,34 +26116,34 @@
     </row>
     <row r="25" spans="1:8">
       <c r="D25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="D26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="D27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="D28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -26160,7 +26160,7 @@
         <v>436</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -26347,7 +26347,7 @@
         <v>426</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>446</v>
       </c>
       <c r="F43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G43" t="s">
         <v>421</v>
@@ -26409,7 +26409,7 @@
         <v>447</v>
       </c>
       <c r="F44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G44" t="s">
         <v>422</v>
@@ -26434,52 +26434,52 @@
     </row>
     <row r="46" spans="1:8">
       <c r="G46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="G47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="F48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
